--- a/biology/Histoire de la zoologie et de la botanique/René_Oberthür/René_Oberthür.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/René_Oberthür/René_Oberthür.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Oberth%C3%BCr</t>
+          <t>René_Oberthür</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">René Oberthür (14 avril 1852, Rennes[1] - 27 avril 1944) est comme son frère aîné, Charles (1845-1924), un entomologiste français. La passion pour les insectes leur vient de leur père, François-Charles Oberthür (1818-1893), imprimeur de profession, entomologiste amateur spécialiste des coléoptères.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">René Oberthür (14 avril 1852, Rennes - 27 avril 1944) est comme son frère aîné, Charles (1845-1924), un entomologiste français. La passion pour les insectes leur vient de leur père, François-Charles Oberthür (1818-1893), imprimeur de profession, entomologiste amateur spécialiste des coléoptères.
 René Oberthür entre à la Société entomologique de France en 1871.
-Les 5 000 000 de spécimens de Charles Oberthür ont été acquis par le Musée d'histoire naturelle de Londres à l'exception de 5 000 papillons conservés dans les collections zoologiques de l'Université de Rennes 1[2] ; la collection de René 5 000 000 de spécimens également, se trouve au laboratoire d'entomologie du Muséum national d'histoire naturelle[3] et représente près de 40 % des collections entomologiques de cet établissement, classé monument historique le 24 mars 1993[4].
+Les 5 000 000 de spécimens de Charles Oberthür ont été acquis par le Musée d'histoire naturelle de Londres à l'exception de 5 000 papillons conservés dans les collections zoologiques de l'Université de Rennes 1 ; la collection de René 5 000 000 de spécimens également, se trouve au laboratoire d'entomologie du Muséum national d'histoire naturelle et représente près de 40 % des collections entomologiques de cet établissement, classé monument historique le 24 mars 1993.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Oberth%C3%BCr</t>
+          <t>René_Oberthür</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Coleopterorum novitates : recueil spécialement consacré à l'étude des coléoptères, 1883
 Faune analytique illustrée des Lucanides de Java, 1913, avec Constant Houlbert, Bulletin du Muséum national d'histoire naturelle
